--- a/tabelas/drop_wave_function/part50_iter200_runs100.xlsx
+++ b/tabelas/drop_wave_function/part50_iter200_runs100.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="22">
   <si>
     <t>Média dos Resultados</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Anel (k=3)</t>
-  </si>
-  <si>
-    <t>Estrela</t>
   </si>
   <si>
     <t>Von Neumann</t>
@@ -498,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M11"/>
+  <dimension ref="B2:M10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,37 +579,37 @@
         <v>14</v>
       </c>
       <c r="C6" s="5">
-        <v>-0.8512858860758845</v>
+        <v>-0.8347364637527588</v>
       </c>
       <c r="D6" s="5">
-        <v>-0.9805536578868215</v>
+        <v>-0.9701732035243846</v>
       </c>
       <c r="E6" s="5">
-        <v>-0.9896569426637483</v>
+        <v>-0.9801140479590198</v>
       </c>
       <c r="F6" s="5">
-        <v>-0.9904367442502514</v>
+        <v>-0.9827687677841176</v>
       </c>
       <c r="G6" s="5">
-        <v>-0.9917068157659849</v>
+        <v>-0.9846542959028504</v>
       </c>
       <c r="H6" s="5">
-        <v>-0.9917118925335251</v>
+        <v>-0.9846988712637962</v>
       </c>
       <c r="I6" s="5">
-        <v>-0.9923494393017437</v>
+        <v>-0.98469887864437</v>
       </c>
       <c r="J6" s="5">
-        <v>-0.992349439336817</v>
+        <v>-0.9853096910034238</v>
       </c>
       <c r="K6" s="5">
-        <v>-0.9923494393369503</v>
+        <v>-0.9853364239863752</v>
       </c>
       <c r="L6" s="5">
-        <v>-0.9923494393369527</v>
+        <v>-0.9853364253958126</v>
       </c>
       <c r="M6" s="5">
-        <v>-0.9923494393369527</v>
+        <v>-0.9853364253958261</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -620,37 +617,37 @@
         <v>15</v>
       </c>
       <c r="C7" s="7">
-        <v>-0.755938503441045</v>
+        <v>-0.7606222973797145</v>
       </c>
       <c r="D7" s="7">
-        <v>-0.9568892331124933</v>
+        <v>-0.9554879399148314</v>
       </c>
       <c r="E7" s="7">
-        <v>-0.9823363237835955</v>
+        <v>-0.9794462521548553</v>
       </c>
       <c r="F7" s="7">
-        <v>-0.9881766473672079</v>
+        <v>-0.9882815963657279</v>
       </c>
       <c r="G7" s="7">
-        <v>-0.9910135759831864</v>
+        <v>-0.9907134094073656</v>
       </c>
       <c r="H7" s="7">
-        <v>-0.9916080546869303</v>
+        <v>-0.9931127614745675</v>
       </c>
       <c r="I7" s="7">
-        <v>-0.992724421472629</v>
+        <v>-0.9933369263903125</v>
       </c>
       <c r="J7" s="7">
-        <v>-0.9936106643122379</v>
+        <v>-0.9936007597170992</v>
       </c>
       <c r="K7" s="7">
-        <v>-0.9936244171584646</v>
+        <v>-0.9936245134945814</v>
       </c>
       <c r="L7" s="7">
-        <v>-0.9936244239008063</v>
+        <v>-0.9936245325584429</v>
       </c>
       <c r="M7" s="7">
-        <v>-0.9936245327320986</v>
+        <v>-0.9936245327800947</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -658,37 +655,37 @@
         <v>16</v>
       </c>
       <c r="C8" s="5">
-        <v>-0.7947039989474248</v>
+        <v>-0.7898888324256009</v>
       </c>
       <c r="D8" s="5">
-        <v>-0.9663268657900903</v>
+        <v>-0.9648072970541719</v>
       </c>
       <c r="E8" s="5">
-        <v>-0.9877480662883508</v>
+        <v>-0.9856843816892874</v>
       </c>
       <c r="F8" s="5">
-        <v>-0.9932899124972608</v>
+        <v>-0.9905147901456344</v>
       </c>
       <c r="G8" s="5">
-        <v>-0.9952910222771523</v>
+        <v>-0.993803439202955</v>
       </c>
       <c r="H8" s="5">
-        <v>-0.9974160731534951</v>
+        <v>-0.9951335854131013</v>
       </c>
       <c r="I8" s="5">
-        <v>-0.9974498095069154</v>
+        <v>-0.996021772755463</v>
       </c>
       <c r="J8" s="5">
-        <v>-0.9980738921415747</v>
+        <v>-0.9961681357063266</v>
       </c>
       <c r="K8" s="5">
-        <v>-0.9980872835609114</v>
+        <v>-0.9961747191477082</v>
       </c>
       <c r="L8" s="5">
-        <v>-0.998087359833616</v>
+        <v>-0.9961747196684558</v>
       </c>
       <c r="M8" s="5">
-        <v>-0.9980873598342381</v>
+        <v>-0.9961747196684763</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -696,37 +693,37 @@
         <v>17</v>
       </c>
       <c r="C9" s="7">
-        <v>-0.7935152065229392</v>
+        <v>-0.7842714819180362</v>
       </c>
       <c r="D9" s="7">
-        <v>-0.9709794668548853</v>
+        <v>-0.9700834459751697</v>
       </c>
       <c r="E9" s="7">
-        <v>-0.9878226936086899</v>
+        <v>-0.9890042478071631</v>
       </c>
       <c r="F9" s="7">
-        <v>-0.9915386067435962</v>
+        <v>-0.9939121885399983</v>
       </c>
       <c r="G9" s="7">
-        <v>-0.9940206011962042</v>
+        <v>-0.9953822881408405</v>
       </c>
       <c r="H9" s="7">
-        <v>-0.9945517709067926</v>
+        <v>-0.9956690832127615</v>
       </c>
       <c r="I9" s="7">
-        <v>-0.9952504608006693</v>
+        <v>-0.9967794875727739</v>
       </c>
       <c r="J9" s="7">
-        <v>-0.9955199231389926</v>
+        <v>-0.9974497999036148</v>
       </c>
       <c r="K9" s="7">
-        <v>-0.9955324818538784</v>
+        <v>-0.9974498131068604</v>
       </c>
       <c r="L9" s="7">
-        <v>-0.9955371729255229</v>
+        <v>-0.997449813112316</v>
       </c>
       <c r="M9" s="7">
-        <v>-0.9955371729465319</v>
+        <v>-0.9974498131123175</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -734,74 +731,36 @@
         <v>18</v>
       </c>
       <c r="C10" s="5">
-        <v>-0.8658571132064264</v>
+        <v>-0.7491532694482149</v>
       </c>
       <c r="D10" s="5">
-        <v>-0.9748179677882699</v>
+        <v>-0.9649713003636811</v>
       </c>
       <c r="E10" s="5">
-        <v>-0.9816231269202318</v>
+        <v>-0.9872402728860392</v>
       </c>
       <c r="F10" s="5">
-        <v>-0.9845527889248591</v>
+        <v>-0.9932592190913369</v>
       </c>
       <c r="G10" s="5">
-        <v>-0.9872471102157988</v>
+        <v>-0.996271852659092</v>
       </c>
       <c r="H10" s="5">
-        <v>-0.9878853668593162</v>
+        <v>-0.9979672505383695</v>
       </c>
       <c r="I10" s="5">
-        <v>-0.9885239363981237</v>
+        <v>-0.9980864428535351</v>
       </c>
       <c r="J10" s="5">
-        <v>-0.9891612285809547</v>
+        <v>-0.998087359344822</v>
       </c>
       <c r="K10" s="5">
-        <v>-0.989161705619801</v>
+        <v>-0.9980873598341887</v>
       </c>
       <c r="L10" s="5">
-        <v>-0.9891617057273494</v>
+        <v>-0.9980873598342376</v>
       </c>
       <c r="M10" s="5">
-        <v>-0.9891617057273497</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="7">
-        <v>-0.7798669155142349</v>
-      </c>
-      <c r="D11" s="7">
-        <v>-0.968203296430563</v>
-      </c>
-      <c r="E11" s="7">
-        <v>-0.9882469328346869</v>
-      </c>
-      <c r="F11" s="7">
-        <v>-0.9935524502234291</v>
-      </c>
-      <c r="G11" s="7">
-        <v>-0.9961427988763664</v>
-      </c>
-      <c r="H11" s="7">
-        <v>-0.9969395393980062</v>
-      </c>
-      <c r="I11" s="7">
-        <v>-0.9980866874429816</v>
-      </c>
-      <c r="J11" s="7">
-        <v>-0.9980873596489573</v>
-      </c>
-      <c r="K11" s="7">
-        <v>-0.9980873598342279</v>
-      </c>
-      <c r="L11" s="7">
-        <v>-0.9980873598342381</v>
-      </c>
-      <c r="M11" s="7">
         <v>-0.9980873598342381</v>
       </c>
     </row>
@@ -816,7 +775,287 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M11"/>
+  <dimension ref="B2:M10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="13" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.1010422343796813</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.03037806424047457</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.02914792414789126</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.02829436364258906</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.02720661250323973</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.02722854079306537</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.02722854494049085</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.02681674265103241</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.02683003784092979</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.02683003861123397</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.0268300386112414</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.1247561893471146</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.02480206728763317</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.02665686525066236</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.02330365231615548</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.02167178700591955</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.01920569083991365</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.01923628666283388</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.01911990518657064</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.01912639522984117</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.01912640158350054</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.01912640165738436</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.1209375642042916</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.02679637568281099</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.02568399206901284</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.02159763293452776</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.01809519237314506</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.01664279828158619</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.01514057638616573</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.01513937371902147</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.01514089561354034</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.01514089574510408</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.01514089574510926</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.1116024092730132</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.02756600286128556</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.02278447898080398</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.0182254120435919</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.01628947785691066</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.01583310989391386</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.01343124634649313</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.01249331055130348</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.01249331324600208</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.0124933132471157</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.01249331324711605</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.1321851846428721</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.0271658614818541</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.02372253199878017</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.01852104694246408</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.01426702125727666</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.01088260297005578</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.01087557448355703</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.01087573227482559</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.01087573236088628</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.01087573236089489</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.01087573236089501</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:M10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -900,37 +1139,37 @@
         <v>14</v>
       </c>
       <c r="C6" s="5">
-        <v>0.09364053853104294</v>
+        <v>-0.8693852372493523</v>
       </c>
       <c r="D6" s="5">
-        <v>0.0283832363411192</v>
+        <v>-0.9909629739285504</v>
       </c>
       <c r="E6" s="5">
-        <v>0.02332788695459609</v>
+        <v>-0.9999989317472038</v>
       </c>
       <c r="F6" s="5">
-        <v>0.0227649483587336</v>
+        <v>-0.999999999982884</v>
       </c>
       <c r="G6" s="5">
-        <v>0.02143900551052422</v>
+        <v>-0.9999999999999972</v>
       </c>
       <c r="H6" s="5">
-        <v>0.02144091518674872</v>
+        <v>-1</v>
       </c>
       <c r="I6" s="5">
-        <v>0.02071781620152846</v>
+        <v>-1</v>
       </c>
       <c r="J6" s="5">
-        <v>0.02071781621448013</v>
+        <v>-1</v>
       </c>
       <c r="K6" s="5">
-        <v>0.02071781621452942</v>
+        <v>-1</v>
       </c>
       <c r="L6" s="5">
-        <v>0.02071781621453031</v>
+        <v>-1</v>
       </c>
       <c r="M6" s="5">
-        <v>0.02071781621453031</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -938,37 +1177,37 @@
         <v>15</v>
       </c>
       <c r="C7" s="7">
-        <v>0.1221326183095981</v>
+        <v>-0.7746370880027775</v>
       </c>
       <c r="D7" s="7">
-        <v>0.02604270495049118</v>
+        <v>-0.9362453203921299</v>
       </c>
       <c r="E7" s="7">
-        <v>0.02606995761910036</v>
+        <v>-0.997536569965418</v>
       </c>
       <c r="F7" s="7">
-        <v>0.023956957506617</v>
+        <v>-0.9999756819876524</v>
       </c>
       <c r="G7" s="7">
-        <v>0.02148924707438453</v>
+        <v>-0.9999999701239053</v>
       </c>
       <c r="H7" s="7">
-        <v>0.02140755677973098</v>
+        <v>-0.9999999999710877</v>
       </c>
       <c r="I7" s="7">
-        <v>0.01996057810756204</v>
+        <v>-0.9999999999999818</v>
       </c>
       <c r="J7" s="7">
-        <v>0.01912221236093749</v>
+        <v>-1</v>
       </c>
       <c r="K7" s="7">
-        <v>0.01912636314718064</v>
+        <v>-1</v>
       </c>
       <c r="L7" s="7">
-        <v>0.01912636539168886</v>
+        <v>-1</v>
       </c>
       <c r="M7" s="7">
-        <v>0.01912640164138574</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -976,37 +1215,37 @@
         <v>16</v>
       </c>
       <c r="C8" s="5">
-        <v>0.1275892497320715</v>
+        <v>-0.7827830214306042</v>
       </c>
       <c r="D8" s="5">
-        <v>0.02680020359683567</v>
+        <v>-0.9622601414564136</v>
       </c>
       <c r="E8" s="5">
-        <v>0.02354790886152954</v>
+        <v>-0.9999211535428409</v>
       </c>
       <c r="F8" s="5">
-        <v>0.01827477986587146</v>
+        <v>-0.9999999556100994</v>
       </c>
       <c r="G8" s="5">
-        <v>0.01634821917216358</v>
+        <v>-0.9999999999897979</v>
       </c>
       <c r="H8" s="5">
-        <v>0.01248800671988873</v>
+        <v>-0.9999999999999949</v>
       </c>
       <c r="I8" s="5">
-        <v>0.01249331251118374</v>
+        <v>-1</v>
       </c>
       <c r="J8" s="5">
-        <v>0.01087418930861771</v>
+        <v>-1</v>
       </c>
       <c r="K8" s="5">
-        <v>0.0108757189737004</v>
+        <v>-1</v>
       </c>
       <c r="L8" s="5">
-        <v>0.01087573236078559</v>
+        <v>-1</v>
       </c>
       <c r="M8" s="5">
-        <v>0.010875732360895</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -1014,37 +1253,37 @@
         <v>17</v>
       </c>
       <c r="C9" s="7">
-        <v>0.122654890919533</v>
+        <v>-0.7825234765838531</v>
       </c>
       <c r="D9" s="7">
-        <v>0.0279029627227956</v>
+        <v>-0.9791791537199711</v>
       </c>
       <c r="E9" s="7">
-        <v>0.02354214850498338</v>
+        <v>-0.9999871653363439</v>
       </c>
       <c r="F9" s="7">
-        <v>0.02140494673737679</v>
+        <v>-0.9999999959419821</v>
       </c>
       <c r="G9" s="7">
-        <v>0.01822086988304999</v>
+        <v>-0.999999999998662</v>
       </c>
       <c r="H9" s="7">
-        <v>0.01753785579040528</v>
+        <v>-0.9999999999999998</v>
       </c>
       <c r="I9" s="7">
-        <v>0.01643673042976557</v>
+        <v>-1</v>
       </c>
       <c r="J9" s="7">
-        <v>0.01626298650510298</v>
+        <v>-1</v>
       </c>
       <c r="K9" s="7">
-        <v>0.01626559430488984</v>
+        <v>-1</v>
       </c>
       <c r="L9" s="7">
-        <v>0.01626681438836416</v>
+        <v>-1</v>
       </c>
       <c r="M9" s="7">
-        <v>0.01626681439412797</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -1052,75 +1291,37 @@
         <v>18</v>
       </c>
       <c r="C10" s="5">
-        <v>0.08083179355399678</v>
+        <v>-0.772362216835057</v>
       </c>
       <c r="D10" s="5">
-        <v>0.02995320947014205</v>
+        <v>-0.9646753341259651</v>
       </c>
       <c r="E10" s="5">
-        <v>0.02862081030264722</v>
+        <v>-0.999828553540382</v>
       </c>
       <c r="F10" s="5">
-        <v>0.02718336103555445</v>
+        <v>-0.9999999298826795</v>
       </c>
       <c r="G10" s="5">
-        <v>0.02550089651695432</v>
+        <v>-0.9999999999773601</v>
       </c>
       <c r="H10" s="5">
-        <v>0.02501041546823965</v>
+        <v>-0.9999999999999957</v>
       </c>
       <c r="I10" s="5">
-        <v>0.02449364100941041</v>
+        <v>-1</v>
       </c>
       <c r="J10" s="5">
-        <v>0.02394813051912328</v>
+        <v>-1</v>
       </c>
       <c r="K10" s="5">
-        <v>0.02394834594292501</v>
+        <v>-1</v>
       </c>
       <c r="L10" s="5">
-        <v>0.02394834599159812</v>
+        <v>-1</v>
       </c>
       <c r="M10" s="5">
-        <v>0.02394834599159826</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.1169094971507921</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.02731820138281089</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.02355558564611781</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0.01817298411251141</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0.01513418449631405</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0.01268678037743763</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0.01087561493424128</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0.01087573232831107</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0.01087573236089322</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0.010875732360895</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0.010875732360895</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -1132,9 +1333,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M11"/>
+  <dimension ref="B2:M10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1218,37 +1419,37 @@
         <v>14</v>
       </c>
       <c r="C6" s="5">
-        <v>-0.9010203917390796</v>
+        <v>0.01020953312843845</v>
       </c>
       <c r="D6" s="5">
-        <v>-0.9995447241086727</v>
+        <v>0.0009228267869984001</v>
       </c>
       <c r="E6" s="5">
-        <v>-0.9999999632234398</v>
+        <v>0.0008496014821312227</v>
       </c>
       <c r="F6" s="5">
-        <v>-0.9999999999977455</v>
+        <v>0.0008005710139390655</v>
       </c>
       <c r="G6" s="5">
-        <v>-0.9999999999999998</v>
+        <v>0.0007401997639014406</v>
       </c>
       <c r="H6" s="5">
-        <v>-1</v>
+        <v>0.0007413934337196251</v>
       </c>
       <c r="I6" s="5">
-        <v>-1</v>
+        <v>0.0007413936595763299</v>
       </c>
       <c r="J6" s="5">
-        <v>-1</v>
+        <v>0.0007191376864117006</v>
       </c>
       <c r="K6" s="5">
-        <v>-1</v>
+        <v>0.0007198509305457243</v>
       </c>
       <c r="L6" s="5">
-        <v>-1</v>
+        <v>0.0007198509718803058</v>
       </c>
       <c r="M6" s="5">
-        <v>-1</v>
+        <v>0.0007198509718807045</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -1256,37 +1457,37 @@
         <v>15</v>
       </c>
       <c r="C7" s="7">
-        <v>-0.7774951829023953</v>
+        <v>0.01556410678041311</v>
       </c>
       <c r="D7" s="7">
-        <v>-0.9362453141348156</v>
+        <v>0.0006151425417402835</v>
       </c>
       <c r="E7" s="7">
-        <v>-0.9987981474110013</v>
+        <v>0.0007105884649919707</v>
       </c>
       <c r="F7" s="7">
-        <v>-0.9999954612273578</v>
+        <v>0.000543060211272259</v>
       </c>
       <c r="G7" s="7">
-        <v>-0.999999984435092</v>
+        <v>0.0004696663520299434</v>
       </c>
       <c r="H7" s="7">
-        <v>-0.9999999999957838</v>
+        <v>0.0003688585606383433</v>
       </c>
       <c r="I7" s="7">
-        <v>-0.9999999999999969</v>
+        <v>0.0003700347245747206</v>
       </c>
       <c r="J7" s="7">
-        <v>-1</v>
+        <v>0.000365570774343451</v>
       </c>
       <c r="K7" s="7">
-        <v>-1</v>
+        <v>0.0003658189944880913</v>
       </c>
       <c r="L7" s="7">
-        <v>-1</v>
+        <v>0.0003658192375333319</v>
       </c>
       <c r="M7" s="7">
-        <v>-1</v>
+        <v>0.000365819240359595</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -1294,37 +1495,37 @@
         <v>16</v>
       </c>
       <c r="C8" s="5">
-        <v>-0.8028829239316775</v>
+        <v>0.01462589443566714</v>
       </c>
       <c r="D8" s="5">
-        <v>-0.9631288772875357</v>
+        <v>0.0007180457497343439</v>
       </c>
       <c r="E8" s="5">
-        <v>-0.9998942417436704</v>
+        <v>0.0006596674486011142</v>
       </c>
       <c r="F8" s="5">
-        <v>-0.9999999614427439</v>
+        <v>0.0004664577483745982</v>
       </c>
       <c r="G8" s="5">
-        <v>-0.9999999999824282</v>
+        <v>0.000327435987021127</v>
       </c>
       <c r="H8" s="5">
-        <v>-0.9999999999999967</v>
+        <v>0.0002769827346415683</v>
       </c>
       <c r="I8" s="5">
-        <v>-1</v>
+        <v>0.0002292370533053192</v>
       </c>
       <c r="J8" s="5">
-        <v>-1</v>
+        <v>0.000229200636604198</v>
       </c>
       <c r="K8" s="5">
-        <v>-1</v>
+        <v>0.0002292467199801252</v>
       </c>
       <c r="L8" s="5">
-        <v>-1</v>
+        <v>0.0002292467239641109</v>
       </c>
       <c r="M8" s="5">
-        <v>-1</v>
+        <v>0.0002292467239642678</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -1332,37 +1533,37 @@
         <v>17</v>
       </c>
       <c r="C9" s="7">
-        <v>-0.7850580058278309</v>
+        <v>0.01245509775554115</v>
       </c>
       <c r="D9" s="7">
-        <v>-0.9824490833256678</v>
+        <v>0.0007598845137484037</v>
       </c>
       <c r="E9" s="7">
-        <v>-0.9999860987679919</v>
+        <v>0.0005191324824266983</v>
       </c>
       <c r="F9" s="7">
-        <v>-0.9999999970785134</v>
+        <v>0.0003321656441587047</v>
       </c>
       <c r="G9" s="7">
-        <v>-0.9999999999994196</v>
+        <v>0.0002653470888507828</v>
       </c>
       <c r="H9" s="7">
-        <v>-1</v>
+        <v>0.0002506873689127529</v>
       </c>
       <c r="I9" s="7">
-        <v>-1</v>
+        <v>0.000180398378420185</v>
       </c>
       <c r="J9" s="7">
-        <v>-1</v>
+        <v>0.0001560828085313109</v>
       </c>
       <c r="K9" s="7">
-        <v>-1</v>
+        <v>0.0001560828758627309</v>
       </c>
       <c r="L9" s="7">
-        <v>-1</v>
+        <v>0.0001560828758905567</v>
       </c>
       <c r="M9" s="7">
-        <v>-1</v>
+        <v>0.0001560828758905653</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -1370,393 +1571,37 @@
         <v>18</v>
       </c>
       <c r="C10" s="5">
-        <v>-0.9085399133859442</v>
+        <v>0.0174729230390702</v>
       </c>
       <c r="D10" s="5">
-        <v>-0.9980547604357801</v>
+        <v>0.0007379840300512844</v>
       </c>
       <c r="E10" s="5">
-        <v>-0.9999998628411499</v>
+        <v>0.0005627585244331493</v>
       </c>
       <c r="F10" s="5">
-        <v>-0.999999999990715</v>
+        <v>0.0003430291798449581</v>
       </c>
       <c r="G10" s="5">
-        <v>-0.9999999999999991</v>
+        <v>0.000203547895555584</v>
       </c>
       <c r="H10" s="5">
-        <v>-1</v>
+        <v>0.0001184310474038669</v>
       </c>
       <c r="I10" s="5">
-        <v>-1</v>
+        <v>0.0001182781203473967</v>
       </c>
       <c r="J10" s="5">
-        <v>-1</v>
+        <v>0.000118281552513683</v>
       </c>
       <c r="K10" s="5">
-        <v>-1</v>
+        <v>0.0001182815543856291</v>
       </c>
       <c r="L10" s="5">
-        <v>-1</v>
+        <v>0.0001182815543858164</v>
       </c>
       <c r="M10" s="5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="7">
-        <v>-0.7785534243533494</v>
-      </c>
-      <c r="D11" s="7">
-        <v>-0.9801587517535061</v>
-      </c>
-      <c r="E11" s="7">
-        <v>-0.9999256084902582</v>
-      </c>
-      <c r="F11" s="7">
-        <v>-0.9999999819867027</v>
-      </c>
-      <c r="G11" s="7">
-        <v>-0.9999999999958477</v>
-      </c>
-      <c r="H11" s="7">
-        <v>-0.9999999999999981</v>
-      </c>
-      <c r="I11" s="7">
-        <v>-1</v>
-      </c>
-      <c r="J11" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K11" s="7">
-        <v>-1</v>
-      </c>
-      <c r="L11" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="13" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13">
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.008768550456383738</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.0008056081051958297</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.0005441903097664143</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.0005182428737758076</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.000459630957280288</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.000459712844045352</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.0004292279081603153</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.0004292279086969759</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.000429227908699018</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0.0004292279086990549</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0.000429227908699055</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.01491637645515799</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.0006782224811383376</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.0006796426902616887</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.0005739358129738527</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.0004617877398239441</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.0004582834872774057</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0.0003984246783880848</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0.0003656590055767904</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0.0003658177672378298</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0.0003658178530963933</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0.0003658192397476033</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.01627901664719291</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.0007182509128318435</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.0005545040117509017</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.0003339675791460609</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.0002672642701010969</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.0001559503118359861</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0.0001560828575021002</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.0001182479931196557</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0.000118281263194907</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0.000118281554383439</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0.0001182815543858188</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.01504422226648254</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.0007785753287097211</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.0005542327562306911</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.0004581717448299371</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.0003320000992950383</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0.0003075763857250519</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0.0002701661072207814</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0.0002644847300651615</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0.0002645695580912648</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0.0002646092503454912</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0.000264609250533009</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.006533778849155954</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.0008971947575622074</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.000819150782380117</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.0007389351171893001</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.0006502957231684128</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.0006255208818939609</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.0005999384498978713</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0.0005735129553609637</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0.0005735232734020128</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0.0005735232757332939</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0.0005735232757333005</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.01366783052405107</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.000746284126791811</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.0005548656151315913</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0.0003302573515535922</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0.0002290435403684725</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0.0001609543963453365</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0.000118279000197892</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0.0001182815536770706</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0.00011828155438578</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0.0001182815543858187</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0.0001182815543858187</v>
+        <v>0.0001182815543858189</v>
       </c>
     </row>
   </sheetData>
